--- a/all_scoring.xlsx
+++ b/all_scoring.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikej\Desktop\fantrax\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30FFA088-6661-4B7E-B506-EDD53257D14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="all_scoring" sheetId="2" r:id="rId1"/>
+    <sheet name="all_scoring" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="13">
   <si>
     <t>week</t>
   </si>
@@ -40,22 +34,22 @@
     <t>AlphaWired</t>
   </si>
   <si>
-    <t>Putt Pirates</t>
-  </si>
-  <si>
     <t>New Team 4</t>
   </si>
   <si>
     <t>Philly919</t>
   </si>
   <si>
+    <t>Putt Pirates</t>
+  </si>
+  <si>
     <t>Snead's Foot</t>
   </si>
   <si>
-    <t>txmoonshine</t>
+    <t>Team Gamble</t>
   </si>
   <si>
-    <t>Team Gamble</t>
+    <t>txmoonshine</t>
   </si>
   <si>
     <t>unit_circle</t>
@@ -64,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +88,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -102,14 +97,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -397,40 +384,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00012575-62D5-4F5A-8937-9FCFD91707F9}">
-  <dimension ref="A1:E201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -441,52 +419,52 @@
         <v>387.5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>243.5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>454.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>454.5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>243.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>412</v>
@@ -498,7 +476,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -509,18 +487,18 @@
         <v>263.5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>406.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>523</v>
@@ -532,12 +510,12 @@
         <v>436.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>406.5</v>
@@ -549,7 +527,7 @@
         <v>263.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -560,13 +538,13 @@
         <v>436.5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -583,58 +561,58 @@
         <v>463.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>490.5</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>583.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>500</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>583.5</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>490.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -645,18 +623,18 @@
         <v>431.5</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>551</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>551</v>
@@ -668,24 +646,24 @@
         <v>431.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>545</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -702,7 +680,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
@@ -719,12 +697,12 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>353.5</v>
@@ -736,41 +714,41 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>346.5</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>346.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -787,41 +765,41 @@
         <v>391.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>281.5</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>334</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>281.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -832,13 +810,13 @@
         <v>448</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>353.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -849,18 +827,18 @@
         <v>298.5</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>404.5</v>
@@ -872,29 +850,29 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>326</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>352</v>
@@ -906,7 +884,7 @@
         <v>339.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>4</v>
       </c>
@@ -917,35 +895,35 @@
         <v>318</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>404.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>458</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>362</v>
@@ -957,7 +935,7 @@
         <v>298.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -968,13 +946,13 @@
         <v>339.5</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>5</v>
       </c>
@@ -985,35 +963,35 @@
         <v>491</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>375</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>324.5</v>
@@ -1025,12 +1003,12 @@
         <v>423.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>530.5</v>
@@ -1042,7 +1020,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1053,18 +1031,18 @@
         <v>221</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>530.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>340</v>
@@ -1076,24 +1054,24 @@
         <v>491</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>319</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1104,13 +1082,13 @@
         <v>423.5</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>324.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1121,35 +1099,35 @@
         <v>342</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>298</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>324</v>
@@ -1161,24 +1139,24 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>464.5</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <v>342.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>6</v>
       </c>
@@ -1195,41 +1173,41 @@
         <v>502.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>368</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>342.5</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>464.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1246,7 +1224,7 @@
         <v>354.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1257,35 +1235,35 @@
         <v>306.5</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>305.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>305.5</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>246</v>
@@ -1297,24 +1275,24 @@
         <v>366.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>415</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>365.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>7</v>
       </c>
@@ -1325,35 +1303,35 @@
         <v>366.5</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>365.5</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>367.5</v>
@@ -1365,7 +1343,7 @@
         <v>380.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1376,13 +1354,13 @@
         <v>380.5</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>367.5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>8</v>
       </c>
@@ -1393,52 +1371,52 @@
         <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>344</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59">
         <v>354.5</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60">
         <v>308</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>354.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61">
         <v>344</v>
@@ -1450,7 +1428,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>8</v>
       </c>
@@ -1461,18 +1439,18 @@
         <v>447.5</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>415.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>358</v>
@@ -1484,12 +1462,12 @@
         <v>444.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <v>415.5</v>
@@ -1501,7 +1479,7 @@
         <v>447.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>8</v>
       </c>
@@ -1512,13 +1490,13 @@
         <v>444.5</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>358</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>9</v>
       </c>
@@ -1535,58 +1513,58 @@
         <v>381.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>375.5</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>451.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>335.5</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68">
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>451.5</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>375.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>9</v>
       </c>
@@ -1597,18 +1575,18 @@
         <v>313</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>405.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>405.5</v>
@@ -1620,24 +1598,24 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72">
         <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <v>335.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>9</v>
       </c>
@@ -1654,7 +1632,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>10</v>
       </c>
@@ -1671,12 +1649,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>367</v>
@@ -1688,41 +1666,41 @@
         <v>450</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76">
         <v>300</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>452</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>452</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>10</v>
       </c>
@@ -1739,41 +1717,41 @@
         <v>499.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>267.5</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79">
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80">
         <v>297</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>267.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>10</v>
       </c>
@@ -1784,13 +1762,13 @@
         <v>450</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E81">
         <v>367</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>11</v>
       </c>
@@ -1801,18 +1779,18 @@
         <v>274</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>222.5</v>
@@ -1824,29 +1802,29 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84">
         <v>157.5</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>384</v>
@@ -1858,7 +1836,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>11</v>
       </c>
@@ -1869,35 +1847,35 @@
         <v>382.5</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86">
         <v>222.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>329</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87">
         <v>157.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <v>287</v>
@@ -1909,7 +1887,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>11</v>
       </c>
@@ -1920,13 +1898,13 @@
         <v>135</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>384</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>12</v>
       </c>
@@ -1937,35 +1915,35 @@
         <v>298.5</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>380.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>345.5</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91">
         <v>323.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92">
         <v>250.5</v>
@@ -1977,12 +1955,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93">
         <v>404.5</v>
@@ -1994,7 +1972,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>12</v>
       </c>
@@ -2005,18 +1983,18 @@
         <v>387.5</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E94">
         <v>404.5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95">
         <v>380.5</v>
@@ -2028,24 +2006,24 @@
         <v>298.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C96">
         <v>323.5</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96">
         <v>345.5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>12</v>
       </c>
@@ -2056,13 +2034,13 @@
         <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>250.5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>13</v>
       </c>
@@ -2073,35 +2051,35 @@
         <v>313.5</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98">
         <v>414.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99">
         <v>388</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>414.5</v>
@@ -2113,24 +2091,24 @@
         <v>313.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101">
         <v>269.5</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101">
         <v>332.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>13</v>
       </c>
@@ -2147,41 +2125,41 @@
         <v>480.5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103">
         <v>243</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103">
         <v>388</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C104">
         <v>332.5</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E104">
         <v>269.5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>13</v>
       </c>
@@ -2198,12 +2176,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>344</v>
@@ -2215,12 +2193,12 @@
         <v>291.5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C107">
         <v>346</v>
@@ -2232,7 +2210,7 @@
         <v>332.5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>14</v>
       </c>
@@ -2243,18 +2221,18 @@
         <v>332.5</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108">
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109">
         <v>324.5</v>
@@ -2266,24 +2244,24 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110">
         <v>312.5</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>14</v>
       </c>
@@ -2294,13 +2272,13 @@
         <v>291.5</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <v>344</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>14</v>
       </c>
@@ -2311,35 +2289,35 @@
         <v>225</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E112">
         <v>324.5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113">
         <v>218</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <v>312.5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114">
         <v>512</v>
@@ -2351,29 +2329,29 @@
         <v>455.5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115">
         <v>482</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115">
         <v>452.5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>462</v>
@@ -2385,7 +2363,7 @@
         <v>411.5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>15</v>
       </c>
@@ -2396,30 +2374,30 @@
         <v>455.5</v>
       </c>
       <c r="D117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>512</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118">
         <v>452.5</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E118">
         <v>482</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>15</v>
       </c>
@@ -2430,13 +2408,13 @@
         <v>431</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E119">
         <v>380.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>15</v>
       </c>
@@ -2447,18 +2425,18 @@
         <v>411.5</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120">
         <v>462</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C121">
         <v>380.5</v>
@@ -2470,7 +2448,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>16</v>
       </c>
@@ -2487,12 +2465,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123">
         <v>505.5</v>
@@ -2504,41 +2482,41 @@
         <v>362.5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C124">
         <v>387</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124">
         <v>365.5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125">
         <v>365.5</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125">
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>16</v>
       </c>
@@ -2549,47 +2527,47 @@
         <v>362.5</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>505.5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127">
         <v>320</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127">
         <v>310.5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128">
         <v>310.5</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E128">
         <v>320</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>16</v>
       </c>
@@ -2606,7 +2584,7 @@
         <v>518.5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>17</v>
       </c>
@@ -2623,7 +2601,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>17</v>
       </c>
@@ -2640,29 +2618,29 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132">
         <v>387.5</v>
       </c>
       <c r="D132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133">
         <v>367.5</v>
@@ -2674,58 +2652,58 @@
         <v>307.5</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C134">
         <v>355.5</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134">
         <v>327</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C135">
         <v>327</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E135">
         <v>355.5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136">
         <v>313</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136">
         <v>387.5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>17</v>
       </c>
@@ -2736,13 +2714,13 @@
         <v>307.5</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E137">
         <v>367.5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>18</v>
       </c>
@@ -2753,18 +2731,18 @@
         <v>467.5</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138">
         <v>464</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C139">
         <v>464</v>
@@ -2776,7 +2754,7 @@
         <v>467.5</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>18</v>
       </c>
@@ -2787,18 +2765,18 @@
         <v>398.5</v>
       </c>
       <c r="D140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E140">
         <v>387.5</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141">
         <v>387.5</v>
@@ -2810,24 +2788,24 @@
         <v>398.5</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>18</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142">
         <v>334</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E142">
         <v>248.5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>18</v>
       </c>
@@ -2838,18 +2816,18 @@
         <v>310</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E143">
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144">
         <v>262</v>
@@ -2861,46 +2839,46 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C145">
         <v>248.5</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145">
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C146">
         <v>404.5</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E146">
         <v>224</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147">
         <v>344.5</v>
@@ -2912,7 +2890,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>19</v>
       </c>
@@ -2923,13 +2901,13 @@
         <v>331</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E148">
         <v>344.5</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>19</v>
       </c>
@@ -2940,18 +2918,18 @@
         <v>291.5</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E149">
         <v>171</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150">
         <v>230</v>
@@ -2963,24 +2941,24 @@
         <v>188.5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151">
         <v>224</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151">
         <v>404.5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>19</v>
       </c>
@@ -2991,18 +2969,18 @@
         <v>188.5</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152">
         <v>230</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C153">
         <v>171</v>
@@ -3014,7 +2992,7 @@
         <v>291.5</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>20</v>
       </c>
@@ -3031,75 +3009,75 @@
         <v>133.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C155">
         <v>380</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E155">
         <v>283.5</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156">
         <v>376</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E156">
         <v>284.5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C157">
         <v>284.5</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E157">
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158">
         <v>283.5</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158">
         <v>380</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>20</v>
       </c>
@@ -3110,18 +3088,18 @@
         <v>257.5</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E159">
         <v>238.5</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160">
         <v>238.5</v>
@@ -3133,7 +3111,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>20</v>
       </c>
@@ -3150,29 +3128,29 @@
         <v>389</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162">
         <v>398.5</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E162">
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C163">
         <v>390.5</v>
@@ -3184,12 +3162,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164">
         <v>342.5</v>
@@ -3201,7 +3179,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>21</v>
       </c>
@@ -3212,13 +3190,13 @@
         <v>320</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165">
         <v>390.5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>21</v>
       </c>
@@ -3229,18 +3207,18 @@
         <v>303</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E166">
         <v>342.5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167">
         <v>256.5</v>
@@ -3252,7 +3230,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>21</v>
       </c>
@@ -3263,30 +3241,30 @@
         <v>255</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E168">
         <v>256.5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C169">
         <v>194</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E169">
         <v>398.5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>22</v>
       </c>
@@ -3297,18 +3275,18 @@
         <v>334.5</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E170">
         <v>214</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C171">
         <v>333.5</v>
@@ -3320,7 +3298,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>22</v>
       </c>
@@ -3331,13 +3309,13 @@
         <v>308</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E172">
         <v>236.5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>22</v>
       </c>
@@ -3348,52 +3326,52 @@
         <v>275</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173">
         <v>333.5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>22</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174">
         <v>267.5</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E174">
         <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175">
         <v>254</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E175">
         <v>267.5</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176">
         <v>236.5</v>
@@ -3405,12 +3383,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C177">
         <v>214</v>
@@ -3422,29 +3400,29 @@
         <v>334.5</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>23</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178">
         <v>556</v>
       </c>
       <c r="D178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E178">
         <v>489.5</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>23</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C179">
         <v>542.5</v>
@@ -3456,7 +3434,7 @@
         <v>486.5</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>23</v>
       </c>
@@ -3473,41 +3451,41 @@
         <v>436</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C181">
         <v>500.5</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E181">
         <v>420.5</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182">
         <v>489.5</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E182">
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>23</v>
       </c>
@@ -3518,13 +3496,13 @@
         <v>486.5</v>
       </c>
       <c r="D183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E183">
         <v>542.5</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>23</v>
       </c>
@@ -3541,29 +3519,29 @@
         <v>542</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>23</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185">
         <v>420.5</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185">
         <v>500.5</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186">
         <v>489</v>
@@ -3575,41 +3553,41 @@
         <v>416</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C187">
         <v>424.5</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E187">
         <v>288</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188">
         <v>419</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E188">
         <v>315.5</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>24</v>
       </c>
@@ -3620,13 +3598,13 @@
         <v>416</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E189">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>24</v>
       </c>
@@ -3643,7 +3621,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>24</v>
       </c>
@@ -3660,46 +3638,46 @@
         <v>404.5</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192">
         <v>315.5</v>
       </c>
       <c r="D192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E192">
         <v>419</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C193">
         <v>288</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193">
         <v>424.5</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>25</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C194">
         <v>593</v>
@@ -3711,7 +3689,7 @@
         <v>525.5</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>25</v>
       </c>
@@ -3722,13 +3700,13 @@
         <v>525.5</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195">
         <v>593</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>25</v>
       </c>
@@ -3739,47 +3717,47 @@
         <v>472</v>
       </c>
       <c r="D196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E196">
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>25</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C197">
         <v>462.5</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197">
         <v>394.5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>25</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198">
         <v>394.5</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E198">
         <v>462.5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>25</v>
       </c>
@@ -3790,18 +3768,18 @@
         <v>331</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E199">
         <v>305.5</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>25</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200">
         <v>305.5</v>
@@ -3813,12 +3791,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>25</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201">
         <v>214</v>
@@ -3828,6 +3806,142 @@
       </c>
       <c r="E201">
         <v>472</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>26</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202">
+        <v>489.5</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202">
+        <v>463.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>26</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203">
+        <v>463.5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203">
+        <v>489.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>26</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>453</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>26</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205">
+        <v>381</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>26</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206">
+        <v>365</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>26</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207">
+        <v>351.5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>26</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>305</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208">
+        <v>351.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>26</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <v>264</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
